--- a/Women_Super_Cup_Table_Cleaned.xlsx
+++ b/Women_Super_Cup_Table_Cleaned.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taha_\Desktop\Data Task - Portas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7938797-05A8-4CDA-9C4C-6D1CBE12979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0AF23E-0161-4227-85BE-80860A2B04B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
     <sheet name="2021" sheetId="2" r:id="rId2"/>
     <sheet name="2022" sheetId="3" r:id="rId3"/>
-    <sheet name="2023" sheetId="4" r:id="rId4"/>
-    <sheet name="2024" sheetId="5" r:id="rId5"/>
+    <sheet name="all" sheetId="6" r:id="rId4"/>
+    <sheet name="2023" sheetId="4" r:id="rId5"/>
+    <sheet name="2024" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
   <si>
     <t>Team</t>
   </si>
@@ -259,10 +260,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,15 +589,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -908,7 +909,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,15 +924,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1242,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,15 +1259,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1574,6 +1575,1504 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA0172-6F24-4C8A-9992-D83FEEAB839A}">
+  <dimension ref="A1:U28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>16</v>
+      </c>
+      <c r="D3" s="9">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>30</v>
+      </c>
+      <c r="G3" s="10">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="9">
+        <v>22</v>
+      </c>
+      <c r="K3" s="9">
+        <v>18</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2</v>
+      </c>
+      <c r="M3" s="9">
+        <v>51</v>
+      </c>
+      <c r="N3" s="10">
+        <v>56</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>20</v>
+      </c>
+      <c r="R3" s="9">
+        <v>17</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="9">
+        <v>46</v>
+      </c>
+      <c r="U3" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="9">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <v>12</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="F4" s="9">
+        <v>36</v>
+      </c>
+      <c r="G4" s="10">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9">
+        <v>4</v>
+      </c>
+      <c r="M4" s="9">
+        <v>55</v>
+      </c>
+      <c r="N4" s="10">
+        <v>55</v>
+      </c>
+      <c r="O4" s="5">
+        <v>2</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>18</v>
+      </c>
+      <c r="R4" s="9">
+        <v>15</v>
+      </c>
+      <c r="S4" s="9">
+        <v>1</v>
+      </c>
+      <c r="T4" s="9">
+        <v>39</v>
+      </c>
+      <c r="U4" s="10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>27</v>
+      </c>
+      <c r="G5" s="10">
+        <v>36</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="9">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9">
+        <v>15</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>38</v>
+      </c>
+      <c r="N5" s="10">
+        <v>47</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>20</v>
+      </c>
+      <c r="R5" s="9">
+        <v>14</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2</v>
+      </c>
+      <c r="T5" s="9">
+        <v>27</v>
+      </c>
+      <c r="U5" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10">
+        <v>23</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9">
+        <v>6</v>
+      </c>
+      <c r="M6" s="9">
+        <v>23</v>
+      </c>
+      <c r="N6" s="10">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>4</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>20</v>
+      </c>
+      <c r="R6" s="9">
+        <v>10</v>
+      </c>
+      <c r="S6" s="9">
+        <v>5</v>
+      </c>
+      <c r="T6" s="9">
+        <v>17</v>
+      </c>
+      <c r="U6" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>32</v>
+      </c>
+      <c r="O7" s="5">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7">
+        <v>19</v>
+      </c>
+      <c r="R7">
+        <v>9</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>-9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8" s="1">
+        <v>27</v>
+      </c>
+      <c r="O8" s="5">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8">
+        <v>19</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>-6</v>
+      </c>
+      <c r="U8" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>-14</v>
+      </c>
+      <c r="N9" s="1">
+        <v>26</v>
+      </c>
+      <c r="O9" s="5">
+        <v>7</v>
+      </c>
+      <c r="P9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9">
+        <v>20</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9">
+        <v>-16</v>
+      </c>
+      <c r="U9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-15</v>
+      </c>
+      <c r="G10" s="1">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10" s="1">
+        <v>25</v>
+      </c>
+      <c r="O10" s="5">
+        <v>8</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10">
+        <v>20</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
+        <v>-16</v>
+      </c>
+      <c r="U10" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>-19</v>
+      </c>
+      <c r="G11" s="1">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>-27</v>
+      </c>
+      <c r="N11" s="1">
+        <v>21</v>
+      </c>
+      <c r="O11" s="5">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>-17</v>
+      </c>
+      <c r="U11" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>-29</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>-23</v>
+      </c>
+      <c r="N12" s="1">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5">
+        <v>10</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12">
+        <v>20</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>-15</v>
+      </c>
+      <c r="U12" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-18</v>
+      </c>
+      <c r="G13" s="1">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-39</v>
+      </c>
+      <c r="N13" s="1">
+        <v>13</v>
+      </c>
+      <c r="O13" s="5">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13">
+        <v>20</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <v>-23</v>
+      </c>
+      <c r="U13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14" s="6">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>22</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-36</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6">
+        <v>12</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>20</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2">
+        <v>-38</v>
+      </c>
+      <c r="U14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="9">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3</v>
+      </c>
+      <c r="F17" s="9">
+        <v>59</v>
+      </c>
+      <c r="G17" s="10">
+        <v>57</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="9">
+        <v>22</v>
+      </c>
+      <c r="K17" s="9">
+        <v>19</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="9">
+        <v>51</v>
+      </c>
+      <c r="N17" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>22</v>
+      </c>
+      <c r="D18" s="9">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="9">
+        <v>52</v>
+      </c>
+      <c r="G18" s="10">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="9">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9">
+        <v>18</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2</v>
+      </c>
+      <c r="M18" s="9">
+        <v>44</v>
+      </c>
+      <c r="N18" s="10">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="9">
+        <v>22</v>
+      </c>
+      <c r="D19" s="9">
+        <v>15</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9">
+        <v>48</v>
+      </c>
+      <c r="G19" s="10">
+        <v>48</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="9">
+        <v>22</v>
+      </c>
+      <c r="K19" s="9">
+        <v>15</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2</v>
+      </c>
+      <c r="M19" s="9">
+        <v>33</v>
+      </c>
+      <c r="N19" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="9">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>24</v>
+      </c>
+      <c r="G20" s="10">
+        <v>47</v>
+      </c>
+      <c r="H20" s="5">
+        <v>4</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="9">
+        <v>22</v>
+      </c>
+      <c r="K20" s="9">
+        <v>15</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>25</v>
+      </c>
+      <c r="N20" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1">
+        <v>32</v>
+      </c>
+      <c r="H21" s="5">
+        <v>5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>-20</v>
+      </c>
+      <c r="G22" s="1">
+        <v>27</v>
+      </c>
+      <c r="H22" s="5">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>-7</v>
+      </c>
+      <c r="N22" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>-16</v>
+      </c>
+      <c r="G23" s="1">
+        <v>24</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>-15</v>
+      </c>
+      <c r="N23" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>-23</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18</v>
+      </c>
+      <c r="H24" s="5">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>-21</v>
+      </c>
+      <c r="N24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>-29</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>-16</v>
+      </c>
+      <c r="N25" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>-18</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="5">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>-33</v>
+      </c>
+      <c r="N26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>-32</v>
+      </c>
+      <c r="G27" s="1">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>-37</v>
+      </c>
+      <c r="N27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-54</v>
+      </c>
+      <c r="G28" s="3">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="2">
+        <v>22</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <v>-34</v>
+      </c>
+      <c r="N28" s="3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -1908,7 +3407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
